--- a/Output/Scapular Elevation.xlsx
+++ b/Output/Scapular Elevation.xlsx
@@ -9,16 +9,15 @@
   <sheets>
     <sheet name="Angle" sheetId="1" r:id="rId1"/>
     <sheet name="Reaction" sheetId="2" r:id="rId2"/>
-    <sheet name="IR" sheetId="3" r:id="rId3"/>
-    <sheet name="Muscle.Fm" sheetId="4" r:id="rId4"/>
-    <sheet name="Muscle.MomentArm" sheetId="5" r:id="rId5"/>
+    <sheet name="Muscle.Fm" sheetId="3" r:id="rId3"/>
+    <sheet name="Muscle.MomentArm" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="51">
   <si>
     <t>H0Lat G-10Lat G-6Sup</t>
   </si>
@@ -75,12 +74,6 @@
   </si>
   <si>
     <t>glenohumeral reaction force [N]</t>
-  </si>
-  <si>
-    <t>IR</t>
-  </si>
-  <si>
-    <t>Instability ratio</t>
   </si>
   <si>
     <t>Deltoideus lateral</t>
@@ -8248,1655 +8241,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>-0.6432778682894066</v>
-      </c>
-      <c r="D3">
-        <v>-0.5006790152641306</v>
-      </c>
-      <c r="E3">
-        <v>-0.8041834728155103</v>
-      </c>
-      <c r="F3">
-        <v>-0.6397901827652306</v>
-      </c>
-      <c r="G3">
-        <v>-0.5021000622491463</v>
-      </c>
-      <c r="H3">
-        <v>-0.3640094349356616</v>
-      </c>
-      <c r="I3">
-        <v>-0.4789259422655727</v>
-      </c>
-      <c r="J3">
-        <v>-0.3827565303764726</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="C4">
-        <v>-0.9294019194809033</v>
-      </c>
-      <c r="D4">
-        <v>-0.8474088648603064</v>
-      </c>
-      <c r="E4">
-        <v>-0.8174984314393732</v>
-      </c>
-      <c r="F4">
-        <v>-0.6823501103639411</v>
-      </c>
-      <c r="G4">
-        <v>-0.6002008790966552</v>
-      </c>
-      <c r="H4">
-        <v>-0.4907522040994527</v>
-      </c>
-      <c r="I4">
-        <v>-0.4554960568720724</v>
-      </c>
-      <c r="J4">
-        <v>-0.3625624423349612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="C5">
-        <v>-1.113049339399454</v>
-      </c>
-      <c r="D5">
-        <v>-1.063837250539344</v>
-      </c>
-      <c r="E5">
-        <v>-0.8098912727334114</v>
-      </c>
-      <c r="F5">
-        <v>-0.6889380916871467</v>
-      </c>
-      <c r="G5">
-        <v>-0.6958241590239519</v>
-      </c>
-      <c r="H5">
-        <v>-0.6005788014426929</v>
-      </c>
-      <c r="I5">
-        <v>-0.429900298962516</v>
-      </c>
-      <c r="J5">
-        <v>-0.325789992575733</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="C6">
-        <v>-1.23923317201049</v>
-      </c>
-      <c r="D6">
-        <v>-1.210655945486613</v>
-      </c>
-      <c r="E6">
-        <v>-0.7806603383578116</v>
-      </c>
-      <c r="F6">
-        <v>-0.6926251635869809</v>
-      </c>
-      <c r="G6">
-        <v>-0.7440213231388629</v>
-      </c>
-      <c r="H6">
-        <v>-0.6719347246057702</v>
-      </c>
-      <c r="I6">
-        <v>-0.3771185840642092</v>
-      </c>
-      <c r="J6">
-        <v>-0.2986631933365662</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="C7">
-        <v>-1.254181114845385</v>
-      </c>
-      <c r="D7">
-        <v>-1.224220690178795</v>
-      </c>
-      <c r="E7">
-        <v>-0.8152682707026006</v>
-      </c>
-      <c r="F7">
-        <v>-0.7200727032691633</v>
-      </c>
-      <c r="G7">
-        <v>-0.769990364986704</v>
-      </c>
-      <c r="H7">
-        <v>-0.6865221836617901</v>
-      </c>
-      <c r="I7">
-        <v>-0.4042983568255728</v>
-      </c>
-      <c r="J7">
-        <v>-0.3075052984920107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="C8">
-        <v>-1.22577139131247</v>
-      </c>
-      <c r="D8">
-        <v>-1.187199753720945</v>
-      </c>
-      <c r="E8">
-        <v>-0.8218420933229341</v>
-      </c>
-      <c r="F8">
-        <v>-0.7223025560592857</v>
-      </c>
-      <c r="G8">
-        <v>-0.7665533367051446</v>
-      </c>
-      <c r="H8">
-        <v>-0.6825472490017914</v>
-      </c>
-      <c r="I8">
-        <v>-0.4088443241400677</v>
-      </c>
-      <c r="J8">
-        <v>-0.301285956536165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="C9">
-        <v>-1.185296780969452</v>
-      </c>
-      <c r="D9">
-        <v>-1.143062505215815</v>
-      </c>
-      <c r="E9">
-        <v>-0.8206830231493665</v>
-      </c>
-      <c r="F9">
-        <v>-0.716651384137338</v>
-      </c>
-      <c r="G9">
-        <v>-0.7528540542407322</v>
-      </c>
-      <c r="H9">
-        <v>-0.6630642275233123</v>
-      </c>
-      <c r="I9">
-        <v>-0.4088342716282879</v>
-      </c>
-      <c r="J9">
-        <v>-0.2904459737916507</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="C10">
-        <v>-1.14452784407085</v>
-      </c>
-      <c r="D10">
-        <v>-1.094147066488883</v>
-      </c>
-      <c r="E10">
-        <v>-0.8216625595864206</v>
-      </c>
-      <c r="F10">
-        <v>-0.6995329740933782</v>
-      </c>
-      <c r="G10">
-        <v>-0.7343706598279899</v>
-      </c>
-      <c r="H10">
-        <v>-0.6416613403244051</v>
-      </c>
-      <c r="I10">
-        <v>-0.4030281853639022</v>
-      </c>
-      <c r="J10">
-        <v>-0.2840305760839021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="C11">
-        <v>-1.101531714778803</v>
-      </c>
-      <c r="D11">
-        <v>-1.04476125915548</v>
-      </c>
-      <c r="E11">
-        <v>-0.8140343570720753</v>
-      </c>
-      <c r="F11">
-        <v>-0.6943041283060867</v>
-      </c>
-      <c r="G11">
-        <v>-0.7117498665688282</v>
-      </c>
-      <c r="H11">
-        <v>-0.6176415910642412</v>
-      </c>
-      <c r="I11">
-        <v>-0.389566526476951</v>
-      </c>
-      <c r="J11">
-        <v>-0.2670986753333367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="C12">
-        <v>-1.038276097318986</v>
-      </c>
-      <c r="D12">
-        <v>-0.9994710857276753</v>
-      </c>
-      <c r="E12">
-        <v>-0.7984420689337326</v>
-      </c>
-      <c r="F12">
-        <v>-0.6857042522259499</v>
-      </c>
-      <c r="G12">
-        <v>-0.6879688533510696</v>
-      </c>
-      <c r="H12">
-        <v>-0.5917165842344548</v>
-      </c>
-      <c r="I12">
-        <v>-0.3704994558767859</v>
-      </c>
-      <c r="J12">
-        <v>-0.2477335496671299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="C13">
-        <v>-0.9861016765026089</v>
-      </c>
-      <c r="D13">
-        <v>-0.9540172043749259</v>
-      </c>
-      <c r="E13">
-        <v>-0.7781498070991048</v>
-      </c>
-      <c r="F13">
-        <v>-0.672675670219224</v>
-      </c>
-      <c r="G13">
-        <v>-0.6645889910417806</v>
-      </c>
-      <c r="H13">
-        <v>-0.5648842299258247</v>
-      </c>
-      <c r="I13">
-        <v>-0.3534935320160341</v>
-      </c>
-      <c r="J13">
-        <v>-0.2245739943248095</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="C14">
-        <v>-0.9355765350648131</v>
-      </c>
-      <c r="D14">
-        <v>-0.8950108870252806</v>
-      </c>
-      <c r="E14">
-        <v>-0.7535963025893616</v>
-      </c>
-      <c r="F14">
-        <v>-0.6571975881949921</v>
-      </c>
-      <c r="G14">
-        <v>-0.6384865038805867</v>
-      </c>
-      <c r="H14">
-        <v>-0.5321264392671411</v>
-      </c>
-      <c r="I14">
-        <v>-0.3366839719988806</v>
-      </c>
-      <c r="J14">
-        <v>-0.1988020799449097</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="C15">
-        <v>-0.8879754038816193</v>
-      </c>
-      <c r="D15">
-        <v>-0.8427104625871795</v>
-      </c>
-      <c r="E15">
-        <v>-0.7263257743862889</v>
-      </c>
-      <c r="F15">
-        <v>-0.6372255179111012</v>
-      </c>
-      <c r="G15">
-        <v>-0.6081778988810154</v>
-      </c>
-      <c r="H15">
-        <v>-0.5003827351826322</v>
-      </c>
-      <c r="I15">
-        <v>-0.3197275736971325</v>
-      </c>
-      <c r="J15">
-        <v>-0.1714462353627156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="C16">
-        <v>-0.8421506266874724</v>
-      </c>
-      <c r="D16">
-        <v>-0.7959374015719963</v>
-      </c>
-      <c r="E16">
-        <v>-0.6838438124431471</v>
-      </c>
-      <c r="F16">
-        <v>-0.613371620498664</v>
-      </c>
-      <c r="G16">
-        <v>-0.5766982759627066</v>
-      </c>
-      <c r="H16">
-        <v>-0.4673326167160255</v>
-      </c>
-      <c r="I16">
-        <v>-0.3015086229508077</v>
-      </c>
-      <c r="J16">
-        <v>-0.1420746770400057</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="C17">
-        <v>-0.796660378066232</v>
-      </c>
-      <c r="D17">
-        <v>-0.7505666487280186</v>
-      </c>
-      <c r="E17">
-        <v>-0.6474743918434829</v>
-      </c>
-      <c r="F17">
-        <v>-0.5768946184851889</v>
-      </c>
-      <c r="G17">
-        <v>-0.5440260892856319</v>
-      </c>
-      <c r="H17">
-        <v>-0.4346825274246151</v>
-      </c>
-      <c r="I17">
-        <v>-0.2837019518839976</v>
-      </c>
-      <c r="J17">
-        <v>-0.1021674714778604</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10">
-      <c r="C18">
-        <v>-0.7530920705737109</v>
-      </c>
-      <c r="D18">
-        <v>-0.7061220530301172</v>
-      </c>
-      <c r="E18">
-        <v>-0.6136499819910344</v>
-      </c>
-      <c r="F18">
-        <v>-0.5453675562101815</v>
-      </c>
-      <c r="G18">
-        <v>-0.511477064253907</v>
-      </c>
-      <c r="H18">
-        <v>-0.4021961126220884</v>
-      </c>
-      <c r="I18">
-        <v>-0.2637004543292876</v>
-      </c>
-      <c r="J18">
-        <v>-0.06389637325670701</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10">
-      <c r="C19">
-        <v>-0.7112037111064076</v>
-      </c>
-      <c r="D19">
-        <v>-0.6638767451806925</v>
-      </c>
-      <c r="E19">
-        <v>-0.5815304866922196</v>
-      </c>
-      <c r="F19">
-        <v>-0.5153729150900802</v>
-      </c>
-      <c r="G19">
-        <v>-0.4755601724331936</v>
-      </c>
-      <c r="H19">
-        <v>-0.3676182173537578</v>
-      </c>
-      <c r="I19">
-        <v>-0.2429904684983928</v>
-      </c>
-      <c r="J19">
-        <v>-0.01281134553172202</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10">
-      <c r="C20">
-        <v>-0.6703334859205591</v>
-      </c>
-      <c r="D20">
-        <v>-0.6233834417977239</v>
-      </c>
-      <c r="E20">
-        <v>-0.5506625753992344</v>
-      </c>
-      <c r="F20">
-        <v>-0.4849346077730177</v>
-      </c>
-      <c r="G20">
-        <v>-0.4377656569478474</v>
-      </c>
-      <c r="H20">
-        <v>-0.3335697370533073</v>
-      </c>
-      <c r="I20">
-        <v>-0.2181453178802193</v>
-      </c>
-      <c r="J20">
-        <v>0.03835345081961817</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10">
-      <c r="C21">
-        <v>-0.6310414938268031</v>
-      </c>
-      <c r="D21">
-        <v>-0.5840293075623617</v>
-      </c>
-      <c r="E21">
-        <v>-0.5209092276389298</v>
-      </c>
-      <c r="F21">
-        <v>-0.4554050237666376</v>
-      </c>
-      <c r="G21">
-        <v>-0.4011604163287859</v>
-      </c>
-      <c r="H21">
-        <v>-0.2973294249624226</v>
-      </c>
-      <c r="I21">
-        <v>-0.1920129393102072</v>
-      </c>
-      <c r="J21">
-        <v>0.08534869660471303</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10">
-      <c r="C22">
-        <v>-0.5932363566162142</v>
-      </c>
-      <c r="D22">
-        <v>-0.5462650008354271</v>
-      </c>
-      <c r="E22">
-        <v>-0.4918519047778316</v>
-      </c>
-      <c r="F22">
-        <v>-0.4268380293368382</v>
-      </c>
-      <c r="G22">
-        <v>-0.3660670560722535</v>
-      </c>
-      <c r="H22">
-        <v>-0.2593825531195583</v>
-      </c>
-      <c r="I22">
-        <v>-0.1659684807763594</v>
-      </c>
-      <c r="J22">
-        <v>0.1263124189015662</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10">
-      <c r="C23">
-        <v>-0.5569787472989688</v>
-      </c>
-      <c r="D23">
-        <v>-0.509051237617768</v>
-      </c>
-      <c r="E23">
-        <v>-0.4629594300595103</v>
-      </c>
-      <c r="F23">
-        <v>-0.3993930444332052</v>
-      </c>
-      <c r="G23">
-        <v>-0.3256765233826295</v>
-      </c>
-      <c r="H23">
-        <v>-0.2220232440499698</v>
-      </c>
-      <c r="I23">
-        <v>-0.1382312997434895</v>
-      </c>
-      <c r="J23">
-        <v>0.1634645105906212</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10">
-      <c r="C24">
-        <v>-0.5205485439553708</v>
-      </c>
-      <c r="D24">
-        <v>-0.4728438914361893</v>
-      </c>
-      <c r="E24">
-        <v>-0.4333675817244478</v>
-      </c>
-      <c r="F24">
-        <v>-0.372790920570667</v>
-      </c>
-      <c r="G24">
-        <v>-0.2910646871612931</v>
-      </c>
-      <c r="H24">
-        <v>-0.1798150259731524</v>
-      </c>
-      <c r="I24">
-        <v>-0.1056154995863489</v>
-      </c>
-      <c r="J24">
-        <v>0.1954650401481695</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10">
-      <c r="C25">
-        <v>-0.4808746993347251</v>
-      </c>
-      <c r="D25">
-        <v>-0.437949716781662</v>
-      </c>
-      <c r="E25">
-        <v>-0.4044119189143728</v>
-      </c>
-      <c r="F25">
-        <v>-0.34573845982784</v>
-      </c>
-      <c r="G25">
-        <v>-0.2580218810517169</v>
-      </c>
-      <c r="H25">
-        <v>-0.1417997021316504</v>
-      </c>
-      <c r="I25">
-        <v>-0.0742242118338385</v>
-      </c>
-      <c r="J25">
-        <v>0.220090493312579</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10">
-      <c r="C26">
-        <v>-0.4450976503532304</v>
-      </c>
-      <c r="D26">
-        <v>-0.4039588847562821</v>
-      </c>
-      <c r="E26">
-        <v>-0.375453812952308</v>
-      </c>
-      <c r="F26">
-        <v>-0.3189228859616642</v>
-      </c>
-      <c r="G26">
-        <v>-0.2258523810973751</v>
-      </c>
-      <c r="H26">
-        <v>-0.1081235427094839</v>
-      </c>
-      <c r="I26">
-        <v>-0.04029962069796122</v>
-      </c>
-      <c r="J26">
-        <v>0.2404682583700981</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10">
-      <c r="C27">
-        <v>-0.4108948741972625</v>
-      </c>
-      <c r="D27">
-        <v>-0.3708354267727708</v>
-      </c>
-      <c r="E27">
-        <v>-0.3467658271079313</v>
-      </c>
-      <c r="F27">
-        <v>-0.2932239801520728</v>
-      </c>
-      <c r="G27">
-        <v>-0.1936729222688273</v>
-      </c>
-      <c r="H27">
-        <v>-0.07768522647880119</v>
-      </c>
-      <c r="I27">
-        <v>0.0002058601038009707</v>
-      </c>
-      <c r="J27">
-        <v>0.2596833817812614</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10">
-      <c r="C28">
-        <v>-0.3764512507280833</v>
-      </c>
-      <c r="D28">
-        <v>-0.3386504156200941</v>
-      </c>
-      <c r="E28">
-        <v>-0.3140240643714777</v>
-      </c>
-      <c r="F28">
-        <v>-0.2665591824191861</v>
-      </c>
-      <c r="G28">
-        <v>-0.1620175927087198</v>
-      </c>
-      <c r="H28">
-        <v>-0.04963804236585141</v>
-      </c>
-      <c r="I28">
-        <v>0.03754647461971621</v>
-      </c>
-      <c r="J28">
-        <v>0.2770933342065294</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10">
-      <c r="C29">
-        <v>-0.3389897756826774</v>
-      </c>
-      <c r="D29">
-        <v>-0.3008763711820987</v>
-      </c>
-      <c r="E29">
-        <v>-0.283920508667677</v>
-      </c>
-      <c r="F29">
-        <v>-0.2390617290063977</v>
-      </c>
-      <c r="G29">
-        <v>-0.1307241691395228</v>
-      </c>
-      <c r="H29">
-        <v>-0.02359758382997615</v>
-      </c>
-      <c r="I29">
-        <v>0.07131265924586611</v>
-      </c>
-      <c r="J29">
-        <v>0.2929964961689288</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10">
-      <c r="C30">
-        <v>-0.3026861548213808</v>
-      </c>
-      <c r="D30">
-        <v>-0.2629220617076508</v>
-      </c>
-      <c r="E30">
-        <v>-0.2549741890435036</v>
-      </c>
-      <c r="F30">
-        <v>-0.2074228849275561</v>
-      </c>
-      <c r="G30">
-        <v>-0.09997176489106926</v>
-      </c>
-      <c r="H30">
-        <v>0.003018218681786793</v>
-      </c>
-      <c r="I30">
-        <v>0.1016005687238292</v>
-      </c>
-      <c r="J30">
-        <v>0.3074467724201953</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10">
-      <c r="C31">
-        <v>-0.2678115045044671</v>
-      </c>
-      <c r="D31">
-        <v>-0.2274607092195626</v>
-      </c>
-      <c r="E31">
-        <v>-0.2268412324502518</v>
-      </c>
-      <c r="F31">
-        <v>-0.1789995503573258</v>
-      </c>
-      <c r="G31">
-        <v>-0.06996500158149459</v>
-      </c>
-      <c r="H31">
-        <v>0.0293299894108251</v>
-      </c>
-      <c r="I31">
-        <v>0.1285535242730016</v>
-      </c>
-      <c r="J31">
-        <v>0.3209820050631544</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10">
-      <c r="C32">
-        <v>-0.2332688625896386</v>
-      </c>
-      <c r="D32">
-        <v>-0.1941617570442467</v>
-      </c>
-      <c r="E32">
-        <v>-0.1952839184042025</v>
-      </c>
-      <c r="F32">
-        <v>-0.1478233160706109</v>
-      </c>
-      <c r="G32">
-        <v>-0.04099136992615902</v>
-      </c>
-      <c r="H32">
-        <v>0.05876515639251809</v>
-      </c>
-      <c r="I32">
-        <v>0.1526378661629001</v>
-      </c>
-      <c r="J32">
-        <v>0.3351319853940028</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10">
-      <c r="C33">
-        <v>-0.2001427992210615</v>
-      </c>
-      <c r="D33">
-        <v>-0.160479753599119</v>
-      </c>
-      <c r="E33">
-        <v>-0.1661172468248969</v>
-      </c>
-      <c r="F33">
-        <v>-0.1187915431776907</v>
-      </c>
-      <c r="G33">
-        <v>-0.01237477078396493</v>
-      </c>
-      <c r="H33">
-        <v>0.08704626529479488</v>
-      </c>
-      <c r="I33">
-        <v>0.1742962937836483</v>
-      </c>
-      <c r="J33">
-        <v>0.3481830165143188</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10">
-      <c r="C34">
-        <v>-0.1678518240411334</v>
-      </c>
-      <c r="D34">
-        <v>-0.1277077417207087</v>
-      </c>
-      <c r="E34">
-        <v>-0.1374058767715553</v>
-      </c>
-      <c r="F34">
-        <v>-0.09096142647133197</v>
-      </c>
-      <c r="G34">
-        <v>0.01839324129177394</v>
-      </c>
-      <c r="H34">
-        <v>0.1130091010187077</v>
-      </c>
-      <c r="I34">
-        <v>0.193797447598562</v>
-      </c>
-      <c r="J34">
-        <v>0.3606779633616669</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10">
-      <c r="C35">
-        <v>-0.1361040160903968</v>
-      </c>
-      <c r="D35">
-        <v>-0.09558683222281056</v>
-      </c>
-      <c r="E35">
-        <v>-0.1081597236235691</v>
-      </c>
-      <c r="F35">
-        <v>-0.0638703764164102</v>
-      </c>
-      <c r="G35">
-        <v>0.04719786539016763</v>
-      </c>
-      <c r="H35">
-        <v>0.1404102039082274</v>
-      </c>
-      <c r="I35">
-        <v>0.2115692801258125</v>
-      </c>
-      <c r="J35">
-        <v>0.3728827357189435</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10">
-      <c r="C36">
-        <v>-0.1048190460528278</v>
-      </c>
-      <c r="D36">
-        <v>-0.06403326093008906</v>
-      </c>
-      <c r="E36">
-        <v>-0.07932488389860623</v>
-      </c>
-      <c r="F36">
-        <v>-0.03753194066935824</v>
-      </c>
-      <c r="G36">
-        <v>0.07594684266980246</v>
-      </c>
-      <c r="H36">
-        <v>0.1701412413957494</v>
-      </c>
-      <c r="I36">
-        <v>0.2278010075651621</v>
-      </c>
-      <c r="J36">
-        <v>0.3840975199904321</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10">
-      <c r="C37">
-        <v>-0.07383303424845331</v>
-      </c>
-      <c r="D37">
-        <v>-0.0327891579665192</v>
-      </c>
-      <c r="E37">
-        <v>-0.05074844736963911</v>
-      </c>
-      <c r="F37">
-        <v>-0.01093111179786784</v>
-      </c>
-      <c r="G37">
-        <v>0.1047075302702297</v>
-      </c>
-      <c r="H37">
-        <v>0.1991528056803726</v>
-      </c>
-      <c r="I37">
-        <v>0.2439450290660264</v>
-      </c>
-      <c r="J37">
-        <v>0.3953434968869018</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10">
-      <c r="C38">
-        <v>-0.04308259364869371</v>
-      </c>
-      <c r="D38">
-        <v>-0.001788049867128542</v>
-      </c>
-      <c r="E38">
-        <v>-0.02235611258734603</v>
-      </c>
-      <c r="F38">
-        <v>0.01720667926601717</v>
-      </c>
-      <c r="G38">
-        <v>0.1335082166593774</v>
-      </c>
-      <c r="H38">
-        <v>0.2280373850237231</v>
-      </c>
-      <c r="I38">
-        <v>0.2597490503932541</v>
-      </c>
-      <c r="J38">
-        <v>0.4042102742511251</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10">
-      <c r="C39">
-        <v>-0.01241749803439125</v>
-      </c>
-      <c r="D39">
-        <v>0.02905278815608466</v>
-      </c>
-      <c r="E39">
-        <v>0.005992730946458818</v>
-      </c>
-      <c r="F39">
-        <v>0.0452875118222049</v>
-      </c>
-      <c r="G39">
-        <v>0.1624841899666605</v>
-      </c>
-      <c r="H39">
-        <v>0.2562481054058858</v>
-      </c>
-      <c r="I39">
-        <v>0.2752072484785701</v>
-      </c>
-      <c r="J39">
-        <v>0.4154449416834344</v>
-      </c>
-    </row>
-    <row r="40" spans="3:10">
-      <c r="C40">
-        <v>0.01825120354057481</v>
-      </c>
-      <c r="D40">
-        <v>0.05980460103821963</v>
-      </c>
-      <c r="E40">
-        <v>0.03438684062446127</v>
-      </c>
-      <c r="F40">
-        <v>0.07332558661915299</v>
-      </c>
-      <c r="G40">
-        <v>0.1919198928364864</v>
-      </c>
-      <c r="H40">
-        <v>0.2820803381520428</v>
-      </c>
-      <c r="I40">
-        <v>0.2905824110505327</v>
-      </c>
-      <c r="J40">
-        <v>0.4264068585420044</v>
-      </c>
-    </row>
-    <row r="41" spans="3:10">
-      <c r="C41">
-        <v>0.05153188219795983</v>
-      </c>
-      <c r="D41">
-        <v>0.09052128222699614</v>
-      </c>
-      <c r="E41">
-        <v>0.06288434760537373</v>
-      </c>
-      <c r="F41">
-        <v>0.1013904082894962</v>
-      </c>
-      <c r="G41">
-        <v>0.2217527188176711</v>
-      </c>
-      <c r="H41">
-        <v>0.3096035471454134</v>
-      </c>
-      <c r="I41">
-        <v>0.3054436764024583</v>
-      </c>
-      <c r="J41">
-        <v>0.4376121705608469</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10">
-      <c r="C42">
-        <v>0.08459149905255496</v>
-      </c>
-      <c r="D42">
-        <v>0.1245798053380788</v>
-      </c>
-      <c r="E42">
-        <v>0.09150501894239223</v>
-      </c>
-      <c r="F42">
-        <v>0.1293083517126885</v>
-      </c>
-      <c r="G42">
-        <v>0.2534594834656257</v>
-      </c>
-      <c r="H42">
-        <v>0.3394619667694962</v>
-      </c>
-      <c r="I42">
-        <v>0.3191658137810149</v>
-      </c>
-      <c r="J42">
-        <v>0.449629734736165</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10">
-      <c r="C43">
-        <v>0.1170312586875538</v>
-      </c>
-      <c r="D43">
-        <v>0.1570570656689476</v>
-      </c>
-      <c r="E43">
-        <v>0.1203409760481425</v>
-      </c>
-      <c r="F43">
-        <v>0.1576051678622145</v>
-      </c>
-      <c r="G43">
-        <v>0.2834041805944629</v>
-      </c>
-      <c r="H43">
-        <v>0.3698843857582671</v>
-      </c>
-      <c r="I43">
-        <v>0.3322966058822184</v>
-      </c>
-      <c r="J43">
-        <v>0.4613039395510965</v>
-      </c>
-    </row>
-    <row r="44" spans="3:10">
-      <c r="C44">
-        <v>0.1495212122127299</v>
-      </c>
-      <c r="D44">
-        <v>0.1892096537887941</v>
-      </c>
-      <c r="E44">
-        <v>0.1494906826969941</v>
-      </c>
-      <c r="F44">
-        <v>0.1863582750284263</v>
-      </c>
-      <c r="G44">
-        <v>0.3142428100841241</v>
-      </c>
-      <c r="H44">
-        <v>0.401325706739529</v>
-      </c>
-      <c r="I44">
-        <v>0.3456245346099612</v>
-      </c>
-      <c r="J44">
-        <v>0.4726691890028155</v>
-      </c>
-    </row>
-    <row r="45" spans="3:10">
-      <c r="C45">
-        <v>0.1821395231679284</v>
-      </c>
-      <c r="D45">
-        <v>0.2217635388626413</v>
-      </c>
-      <c r="E45">
-        <v>0.1805566214134478</v>
-      </c>
-      <c r="F45">
-        <v>0.2172981480576653</v>
-      </c>
-      <c r="G45">
-        <v>0.3459120516166199</v>
-      </c>
-      <c r="H45">
-        <v>0.4388313266921414</v>
-      </c>
-      <c r="I45">
-        <v>0.3582708507938691</v>
-      </c>
-      <c r="J45">
-        <v>0.4841489630294243</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10">
-      <c r="C46">
-        <v>0.217190526017739</v>
-      </c>
-      <c r="D46">
-        <v>0.2532009085928964</v>
-      </c>
-      <c r="E46">
-        <v>0.2122190920452487</v>
-      </c>
-      <c r="F46">
-        <v>0.2483578033493099</v>
-      </c>
-      <c r="G46">
-        <v>0.3784524996762032</v>
-      </c>
-      <c r="H46">
-        <v>0.4689374123723071</v>
-      </c>
-      <c r="I46">
-        <v>0.3775745592599737</v>
-      </c>
-      <c r="J46">
-        <v>0.4967082865221212</v>
-      </c>
-    </row>
-    <row r="47" spans="3:10">
-      <c r="C47">
-        <v>0.2530219792887041</v>
-      </c>
-      <c r="D47">
-        <v>0.2845359327942725</v>
-      </c>
-      <c r="E47">
-        <v>0.245391155397812</v>
-      </c>
-      <c r="F47">
-        <v>0.2801388413761903</v>
-      </c>
-      <c r="G47">
-        <v>0.4137677551824753</v>
-      </c>
-      <c r="H47">
-        <v>0.5114633678751817</v>
-      </c>
-      <c r="I47">
-        <v>0.398034276447384</v>
-      </c>
-      <c r="J47">
-        <v>0.5109902261540551</v>
-      </c>
-    </row>
-    <row r="48" spans="3:10">
-      <c r="C48">
-        <v>0.2913339598896099</v>
-      </c>
-      <c r="D48">
-        <v>0.3183399998086259</v>
-      </c>
-      <c r="E48">
-        <v>0.2778584364234052</v>
-      </c>
-      <c r="F48">
-        <v>0.3141806269581489</v>
-      </c>
-      <c r="G48">
-        <v>0.4496418591876073</v>
-      </c>
-      <c r="H48">
-        <v>0.568761566030518</v>
-      </c>
-      <c r="I48">
-        <v>0.4238422521564545</v>
-      </c>
-      <c r="J48">
-        <v>0.528488879359627</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10">
-      <c r="C49">
-        <v>0.3257509720009017</v>
-      </c>
-      <c r="D49">
-        <v>0.3531609144129965</v>
-      </c>
-      <c r="E49">
-        <v>0.310222056925222</v>
-      </c>
-      <c r="F49">
-        <v>0.3476091745810008</v>
-      </c>
-      <c r="G49">
-        <v>0.4894368781457851</v>
-      </c>
-      <c r="H49">
-        <v>0.6208553775329323</v>
-      </c>
-      <c r="I49">
-        <v>0.4547293717260167</v>
-      </c>
-      <c r="J49">
-        <v>0.5471259151008764</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10">
-      <c r="C50">
-        <v>0.3606406927948924</v>
-      </c>
-      <c r="D50">
-        <v>0.391679252094464</v>
-      </c>
-      <c r="E50">
-        <v>0.3445872725233098</v>
-      </c>
-      <c r="F50">
-        <v>0.3812411304043331</v>
-      </c>
-      <c r="G50">
-        <v>0.548840837891892</v>
-      </c>
-      <c r="H50">
-        <v>0.6690884014391404</v>
-      </c>
-      <c r="I50">
-        <v>0.488448198086074</v>
-      </c>
-      <c r="J50">
-        <v>0.5666267558734635</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10">
-      <c r="C51">
-        <v>0.3978447078783714</v>
-      </c>
-      <c r="D51">
-        <v>0.4265950525059781</v>
-      </c>
-      <c r="E51">
-        <v>0.3797907308980764</v>
-      </c>
-      <c r="F51">
-        <v>0.4161926412492246</v>
-      </c>
-      <c r="G51">
-        <v>0.5775806079984349</v>
-      </c>
-      <c r="H51">
-        <v>0.7183119748762253</v>
-      </c>
-      <c r="I51">
-        <v>0.5258786603986009</v>
-      </c>
-      <c r="J51">
-        <v>0.5896972111112807</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10">
-      <c r="C52">
-        <v>0.4358661861468006</v>
-      </c>
-      <c r="D52">
-        <v>0.4609211155173288</v>
-      </c>
-      <c r="E52">
-        <v>0.4165315507625251</v>
-      </c>
-      <c r="F52">
-        <v>0.4521001353737162</v>
-      </c>
-      <c r="G52">
-        <v>0.6469320095786072</v>
-      </c>
-      <c r="H52">
-        <v>0.7695353854806806</v>
-      </c>
-      <c r="I52">
-        <v>0.5651818122312346</v>
-      </c>
-      <c r="J52">
-        <v>0.6254705989118925</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10">
-      <c r="C53">
-        <v>0.4747362941362517</v>
-      </c>
-      <c r="D53">
-        <v>0.4966962365144404</v>
-      </c>
-      <c r="E53">
-        <v>0.4542312594860735</v>
-      </c>
-      <c r="F53">
-        <v>0.4910744842580464</v>
-      </c>
-      <c r="G53">
-        <v>0.6998480424835075</v>
-      </c>
-      <c r="H53">
-        <v>0.8255268630522667</v>
-      </c>
-      <c r="I53">
-        <v>0.6080950278804332</v>
-      </c>
-      <c r="J53">
-        <v>0.6664523749114646</v>
-      </c>
-    </row>
-    <row r="54" spans="3:10">
-      <c r="C54">
-        <v>0.5144701653720134</v>
-      </c>
-      <c r="D54">
-        <v>0.5332574567638566</v>
-      </c>
-      <c r="E54">
-        <v>0.4929850644498359</v>
-      </c>
-      <c r="F54">
-        <v>0.5306956822846621</v>
-      </c>
-      <c r="G54">
-        <v>0.7633708988098945</v>
-      </c>
-      <c r="H54">
-        <v>0.8867806124564235</v>
-      </c>
-      <c r="I54">
-        <v>0.6545329509516939</v>
-      </c>
-      <c r="J54">
-        <v>0.7053541431603134</v>
-      </c>
-    </row>
-    <row r="55" spans="3:10">
-      <c r="C55">
-        <v>0.5556747502244314</v>
-      </c>
-      <c r="D55">
-        <v>0.5705688733446631</v>
-      </c>
-      <c r="E55">
-        <v>0.5335226024579615</v>
-      </c>
-      <c r="F55">
-        <v>0.569398417126894</v>
-      </c>
-      <c r="G55">
-        <v>0.8284976318810334</v>
-      </c>
-      <c r="H55">
-        <v>0.9518512569920999</v>
-      </c>
-      <c r="I55">
-        <v>0.7036623269912483</v>
-      </c>
-      <c r="J55">
-        <v>0.7490295759140089</v>
-      </c>
-    </row>
-    <row r="56" spans="3:10">
-      <c r="C56">
-        <v>0.6003240868310975</v>
-      </c>
-      <c r="D56">
-        <v>0.610157968082924</v>
-      </c>
-      <c r="E56">
-        <v>0.576375180604361</v>
-      </c>
-      <c r="F56">
-        <v>0.6087854094895794</v>
-      </c>
-      <c r="G56">
-        <v>0.8952841259840804</v>
-      </c>
-      <c r="H56">
-        <v>0.9897437134490148</v>
-      </c>
-      <c r="I56">
-        <v>0.7556496713139749</v>
-      </c>
-      <c r="J56">
-        <v>0.8021469806857919</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10">
-      <c r="C57">
-        <v>0.6435980916751394</v>
-      </c>
-      <c r="D57">
-        <v>0.6468607880394772</v>
-      </c>
-      <c r="E57">
-        <v>0.6235066834575407</v>
-      </c>
-      <c r="F57">
-        <v>0.6501007359375511</v>
-      </c>
-      <c r="G57">
-        <v>0.9592951518064302</v>
-      </c>
-      <c r="H57">
-        <v>1.035814299655804</v>
-      </c>
-      <c r="I57">
-        <v>0.8112663293797377</v>
-      </c>
-      <c r="J57">
-        <v>0.8577857609031121</v>
-      </c>
-    </row>
-    <row r="58" spans="3:10">
-      <c r="C58">
-        <v>0.6912926896754658</v>
-      </c>
-      <c r="D58">
-        <v>0.6943154761598891</v>
-      </c>
-      <c r="E58">
-        <v>0.6708329520386777</v>
-      </c>
-      <c r="F58">
-        <v>0.6928967260543644</v>
-      </c>
-      <c r="G58">
-        <v>1.019487035152806</v>
-      </c>
-      <c r="H58">
-        <v>1.0855904184266</v>
-      </c>
-      <c r="I58">
-        <v>0.8712584261389821</v>
-      </c>
-      <c r="J58">
-        <v>0.9114615542570971</v>
-      </c>
-    </row>
-    <row r="59" spans="3:10">
-      <c r="C59">
-        <v>0.7434027764889591</v>
-      </c>
-      <c r="D59">
-        <v>0.7410746107698349</v>
-      </c>
-      <c r="E59">
-        <v>0.7193400753782173</v>
-      </c>
-      <c r="F59">
-        <v>0.742517281700263</v>
-      </c>
-      <c r="G59">
-        <v>1.091293971493307</v>
-      </c>
-      <c r="H59">
-        <v>1.133891806264165</v>
-      </c>
-      <c r="I59">
-        <v>0.9322936243124008</v>
-      </c>
-      <c r="J59">
-        <v>0.9552766278612862</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10">
-      <c r="C60">
-        <v>0.7916440873798252</v>
-      </c>
-      <c r="D60">
-        <v>0.7938099245031788</v>
-      </c>
-      <c r="E60">
-        <v>0.7700849674296114</v>
-      </c>
-      <c r="F60">
-        <v>0.7896206715329998</v>
-      </c>
-      <c r="G60">
-        <v>1.14518356869437</v>
-      </c>
-      <c r="H60">
-        <v>1.216492455989518</v>
-      </c>
-      <c r="I60">
-        <v>0.9748713947894802</v>
-      </c>
-      <c r="J60">
-        <v>0.9852766206482746</v>
-      </c>
-    </row>
-    <row r="61" spans="3:10">
-      <c r="C61">
-        <v>0.841936532927922</v>
-      </c>
-      <c r="D61">
-        <v>0.8215000250513876</v>
-      </c>
-      <c r="E61">
-        <v>0.819859190589764</v>
-      </c>
-      <c r="F61">
-        <v>0.8375581493418427</v>
-      </c>
-      <c r="G61">
-        <v>1.213082080529273</v>
-      </c>
-      <c r="H61">
-        <v>1.291633058218177</v>
-      </c>
-      <c r="I61">
-        <v>0.9943839410248431</v>
-      </c>
-      <c r="J61">
-        <v>1.024901743663761</v>
-      </c>
-    </row>
-    <row r="62" spans="3:10">
-      <c r="C62">
-        <v>0.9019974234521247</v>
-      </c>
-      <c r="D62">
-        <v>0.8503490791118737</v>
-      </c>
-      <c r="E62">
-        <v>0.8728262108195289</v>
-      </c>
-      <c r="F62">
-        <v>0.890995292664379</v>
-      </c>
-      <c r="G62">
-        <v>1.308818093158964</v>
-      </c>
-      <c r="H62">
-        <v>1.353507460819164</v>
-      </c>
-      <c r="I62">
-        <v>1.034527137579422</v>
-      </c>
-      <c r="J62">
-        <v>1.085840940383646</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:HJ63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9992,85 +8336,85 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AI1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AQ1" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AY1" t="s">
         <v>25</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BG1" t="s">
         <v>26</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BO1" t="s">
         <v>27</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BW1" t="s">
         <v>28</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="CE1" t="s">
         <v>29</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CM1" t="s">
         <v>30</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CU1" t="s">
         <v>31</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="DC1" t="s">
         <v>32</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="DK1" t="s">
         <v>33</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DS1" t="s">
         <v>34</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="EA1" t="s">
         <v>35</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="EI1" t="s">
         <v>36</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EQ1" t="s">
         <v>37</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EY1" t="s">
         <v>38</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="FG1" t="s">
         <v>39</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="FO1" t="s">
         <v>40</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FW1" t="s">
         <v>41</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="GE1" t="s">
         <v>42</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="GM1" t="s">
         <v>43</v>
       </c>
-      <c r="GE1" t="s">
+      <c r="GU1" t="s">
         <v>44</v>
       </c>
-      <c r="GM1" t="s">
+      <c r="HC1" t="s">
         <v>45</v>
-      </c>
-      <c r="GU1" t="s">
-        <v>46</v>
-      </c>
-      <c r="HC1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:218">
@@ -10078,7 +8422,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -10734,7 +9078,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -50390,7 +48734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:HJ63"/>
   <sheetViews>
@@ -50523,85 +48867,85 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AI1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AQ1" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AY1" t="s">
         <v>25</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BG1" t="s">
         <v>26</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BO1" t="s">
         <v>27</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BW1" t="s">
         <v>28</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="CE1" t="s">
         <v>29</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CM1" t="s">
         <v>30</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CU1" t="s">
         <v>31</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="DC1" t="s">
         <v>32</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="DK1" t="s">
         <v>33</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DS1" t="s">
         <v>34</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="EA1" t="s">
         <v>35</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="EI1" t="s">
         <v>36</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EQ1" t="s">
         <v>37</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EY1" t="s">
         <v>38</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="FG1" t="s">
         <v>39</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="FO1" t="s">
         <v>40</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FW1" t="s">
         <v>41</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="GE1" t="s">
         <v>42</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="GM1" t="s">
         <v>43</v>
       </c>
-      <c r="GE1" t="s">
+      <c r="GU1" t="s">
         <v>44</v>
       </c>
-      <c r="GM1" t="s">
+      <c r="HC1" t="s">
         <v>45</v>
-      </c>
-      <c r="GU1" t="s">
-        <v>46</v>
-      </c>
-      <c r="HC1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:218">
@@ -50609,7 +48953,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -51265,655 +49609,655 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="X3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AD3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AN3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AP3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AQ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AR3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AS3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AT3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AU3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AW3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AX3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AY3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AZ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BD3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BK3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BN3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BP3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BQ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BR3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BS3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BT3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BU3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BV3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BW3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BX3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BY3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BZ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CD3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CK3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CN3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CP3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CQ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CR3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CS3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CT3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CU3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CV3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CW3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CX3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CY3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CZ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DD3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DK3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DN3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DP3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DQ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DR3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DS3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DT3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DU3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DV3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DW3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DX3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DY3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DZ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="ED3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EK3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EN3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EP3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EQ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="ER3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="ES3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="ET3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EU3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EV3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EW3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EX3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EY3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EZ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FD3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FK3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FN3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FP3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FQ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FR3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FS3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FT3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FU3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FV3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FW3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FX3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FY3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FZ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GD3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GK3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GN3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GP3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GQ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GR3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GS3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GT3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GU3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GV3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GW3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GX3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GY3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GZ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HD3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:218">
